--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPMW_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPMW_No_Lineal_Estacionario_SETAR.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.7245748680094141</v>
+        <v>0.6485030195483187</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.7166134370967593</v>
+        <v>0.6689745337779672</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.7242634814566836</v>
+        <v>0.6666635774630232</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.7240299305229702</v>
+        <v>0.6676294084403145</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.7349531908852894</v>
+        <v>0.658292690354643</v>
       </c>
     </row>
   </sheetData>
